--- a/开发过程中问题记录.xlsx
+++ b/开发过程中问题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -115,6 +115,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>slot</t>
     </r>
     <r>
@@ -155,6 +162,9 @@
     <t>解决办法</t>
   </si>
   <si>
+    <t>附</t>
+  </si>
+  <si>
     <t>/</t>
   </si>
   <si>
@@ -162,6 +172,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">series </t>
     </r>
     <r>
@@ -237,6 +254,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -321,6 +345,235 @@
       </rPr>
       <t>shallowRef(null)</t>
     </r>
+  </si>
+  <si>
+    <t>标签字体</t>
+  </si>
+  <si>
+    <t>设置不了label的字体</t>
+  </si>
+  <si>
+    <r>
+      <t>因为给这个标签设置了字体</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35--Regular</t>
+    </r>
+  </si>
+  <si>
+    <t>这个字体没有，删除就能设置字号了</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、排查了是不是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>echarts</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引入模块的问题</t>
+    </r>
+  </si>
+  <si>
+    <t>字体文件</t>
+  </si>
+  <si>
+    <t>加载了字体文件，还是没办法用，加载另一种字体文件看看是不是字体文件元数据有问题</t>
+  </si>
+  <si>
+    <r>
+      <t>最后排查出确实是字体文件有问题，还有加载字体文件的时候不能用format，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>src: url('@/assets/fonts/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小可奶酪体</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.ttf') format('ttf')</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这种写法是错误的</t>
+    </r>
+  </si>
+  <si>
+    <t>1、删除format,重新下载其他字体文件
+2、而且echarts的fontFamily识别不了数字开头的字体名称，所以字体名称要重新改一下</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、排查了是不是main.js或者vite.config.js引入字体文件写错了，都不对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、试过用html加载字体文件，能加载但是也用不了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>svg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>svg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片新增之后要重新启动才会更新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>guage</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的detail显示问题</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>guage</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型的图表设置detail的formatter没有效果</t>
+    </r>
+  </si>
+  <si>
+    <t>1、删了axisLine之后能显示formatter内容
+2、但是单独复制出去axisLine，删除其他部分也能显示</t>
+  </si>
+  <si>
+    <t>用了变量法、、、没找到原因、、</t>
+  </si>
+  <si>
+    <t>guage</t>
+  </si>
+  <si>
+    <t>搞不清data里面的name怎么显示在title里面的</t>
+  </si>
+  <si>
+    <t>因为定义了两个title，冲突了</t>
+  </si>
+  <si>
+    <t>删除下面那个title</t>
   </si>
 </sst>
 </file>
@@ -514,12 +767,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -840,7 +1099,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -864,16 +1123,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
@@ -882,89 +1141,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -972,25 +1231,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1324,16 +1577,16 @@
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="20.25" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1341,13 +1594,13 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1361,30 +1614,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="47.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="51.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1393,22 +1647,112 @@
       <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="93" customHeight="1" spans="1:5">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="70.5" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" ht="54" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/开发过程中问题记录.xlsx
+++ b/开发过程中问题记录.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="vue" sheetId="1" r:id="rId1"/>
     <sheet name="echarts" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="svg" sheetId="3" r:id="rId3"/>
+    <sheet name="element-plus" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <r>
       <rPr>
@@ -354,6 +355,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>因为给这个标签设置了字体</t>
     </r>
     <r>
@@ -372,6 +380,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -413,6 +428,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>最后排查出确实是字体文件有问题，还有加载字体文件的时候不能用format，</t>
     </r>
     <r>
@@ -462,6 +484,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -498,6 +527,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>svg</t>
     </r>
     <r>
@@ -513,6 +549,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>svg</t>
     </r>
     <r>
@@ -528,6 +571,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>guage</t>
     </r>
     <r>
@@ -543,6 +593,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>guage</t>
     </r>
     <r>
@@ -574,6 +631,274 @@
   </si>
   <si>
     <t>删除下面那个title</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>svg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大小</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>svg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置了宽高百分百之后还是没办法占满容器</t>
+    </r>
+  </si>
+  <si>
+    <t>因为svg默认是保持原本宽高比的</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给下载下来的svg图片的svg标签添加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>preserveAspectRatio</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性为none</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、修改所有元素大小为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未解决问题</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、按F11全屏之后就发现正常了，所以猜测是宽高比的问题</t>
+    </r>
+  </si>
+  <si>
+    <t>引入element-plus之后执行报错</t>
+  </si>
+  <si>
+    <t>No known conditions for "./lib/locale/lang/en.js" specifier in "element-plus" package</t>
+  </si>
+  <si>
+    <r>
+      <t>新版本的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Element Plus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更推荐使用基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ES </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路径，而非基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> CommonJS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> lib </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路径</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import en from 'element-plus/lib/locale/lang/en';改成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>import locale from 'element-plus/es/locale/lang/en';</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1231,10 +1556,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1616,19 +1941,19 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="53.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="51.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="51.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
@@ -1651,25 +1976,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="93" customHeight="1" spans="1:5">
-      <c r="A2" s="3">
+    <row r="2" s="3" customFormat="1" ht="93" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1684,12 +2009,12 @@
       <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="70.5" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1704,31 +2029,31 @@
       <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1739,10 +2064,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1765,16 +2090,129 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="51.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="43.5" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="51.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/开发过程中问题记录.xlsx
+++ b/开发过程中问题记录.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="vue" sheetId="1" r:id="rId1"/>
     <sheet name="echarts" sheetId="2" r:id="rId2"/>
     <sheet name="svg" sheetId="3" r:id="rId3"/>
     <sheet name="element-plus" sheetId="4" r:id="rId4"/>
+    <sheet name="axios" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <r>
       <rPr>
@@ -782,6 +783,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>新版本的</t>
     </r>
     <r>
@@ -887,6 +895,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>import en from 'element-plus/lib/locale/lang/en';改成</t>
     </r>
     <r>
@@ -899,6 +914,43 @@
       </rPr>
       <t>import locale from 'element-plus/es/locale/lang/en';</t>
     </r>
+  </si>
+  <si>
+    <t>json文件返回不对</t>
+  </si>
+  <si>
+    <t>请求public里面的json文件返回的是index.html</t>
+  </si>
+  <si>
+    <t>json文件地址写错</t>
+  </si>
+  <si>
+    <t>改正地址</t>
+  </si>
+  <si>
+    <t>设置不了弹窗位置</t>
+  </si>
+  <si>
+    <r>
+      <t>点击点位创建弹窗，弹窗显示在边边上并且不跟着地图移动，报错</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chunk-JVAL7V2R.js?v=33f0bfd2:64 Uncaught TypeError: Cannot read properties of null (reading 'offsetWidth')
+    at Map.&lt;anonymous&gt; (openlayers.vue:106:13)</t>
+    </r>
+  </si>
+  <si>
+    <t>猜测应该是因为没用ref绑定map的原因</t>
+  </si>
+  <si>
+    <t>使用css定位</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1608,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1947,13 +1999,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="53.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="51.75" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
@@ -1976,25 +2028,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="93" customHeight="1" spans="1:5">
-      <c r="A2" s="2">
+    <row r="2" s="2" customFormat="1" ht="93" customHeight="1" spans="1:5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:6">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2009,12 +2061,12 @@
       <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="70.5" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2029,31 +2081,31 @@
       <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2064,10 +2116,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -2098,13 +2150,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="53.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="51.75" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
@@ -2128,13 +2180,13 @@
       </c>
     </row>
     <row r="2" ht="43.5" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2143,7 +2195,7 @@
       <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2159,19 +2211,19 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="47.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="53.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="51.75" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
@@ -2195,13 +2247,13 @@
       </c>
     </row>
     <row r="2" ht="45" spans="1:5">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2209,6 +2261,81 @@
       </c>
       <c r="E2" s="5" t="s">
         <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="73.5" spans="2:5">
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/开发过程中问题记录.xlsx
+++ b/开发过程中问题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="vue" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="svg" sheetId="3" r:id="rId3"/>
     <sheet name="element-plus" sheetId="4" r:id="rId4"/>
     <sheet name="axios" sheetId="5" r:id="rId5"/>
+    <sheet name="ztree" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <r>
       <rPr>
@@ -928,29 +929,17 @@
     <t>改正地址</t>
   </si>
   <si>
-    <t>设置不了弹窗位置</t>
-  </si>
-  <si>
-    <r>
-      <t>点击点位创建弹窗，弹窗显示在边边上并且不跟着地图移动，报错</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>chunk-JVAL7V2R.js?v=33f0bfd2:64 Uncaught TypeError: Cannot read properties of null (reading 'offsetWidth')
-    at Map.&lt;anonymous&gt; (openlayers.vue:106:13)</t>
-    </r>
-  </si>
-  <si>
-    <t>猜测应该是因为没用ref绑定map的原因</t>
-  </si>
-  <si>
-    <t>使用css定位</t>
+    <t>引入ztree报错</t>
+  </si>
+  <si>
+    <t>ReferenceError: jQuery is not defined
+    at node_modules/ztree/js/jquery.ztree.all.js</t>
+  </si>
+  <si>
+    <t>应该是没有全局申明jQuery,ztree找不到</t>
+  </si>
+  <si>
+    <t>在html里面引用可行</t>
   </si>
 </sst>
 </file>
@@ -2274,8 +2263,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2324,19 +2313,79 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" ht="73.5" spans="2:5">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="40.5" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/开发过程中问题记录.xlsx
+++ b/开发过程中问题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="vue" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="element-plus" sheetId="4" r:id="rId4"/>
     <sheet name="axios" sheetId="5" r:id="rId5"/>
     <sheet name="ztree" sheetId="6" r:id="rId6"/>
+    <sheet name="pdf.js" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -940,6 +941,135 @@
   </si>
   <si>
     <t>在html里面引用可行</t>
+  </si>
+  <si>
+    <t>pdfjs引入报错</t>
+  </si>
+  <si>
+    <t>Failed to resolve import "pdfjs-dist/build/pdf.worker.entry" from "src/views/exampleShow/components/pdfPreview.vue". Does the file exist?</t>
+  </si>
+  <si>
+    <t>没有pdf.worker.entry这个文件</t>
+  </si>
+  <si>
+    <t>改成pdf.worker.min.js</t>
+  </si>
+  <si>
+    <r>
+      <t>爆了另外的错</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Uncaught (in promise) Error: Invalid `workerSrc` type.</t>
+    </r>
+  </si>
+  <si>
+    <t>worderSrc这里报错</t>
+  </si>
+  <si>
+    <t>Uncaught (in promise) Error: Invalid `workerSrc` type.</t>
+  </si>
+  <si>
+    <t>进入源代码看是因为传过去的类型不对，必须要string类型</t>
+  </si>
+  <si>
+    <t>直接这么写，但是还是要导入，
+pdfjsLib.GlobalWorkerOptions.workerSrc = 'pdfjs-dist/build/pdf.worker.min.mjs';</t>
+  </si>
+  <si>
+    <t>又报错加载pdf失败</t>
+  </si>
+  <si>
+    <t>加载pdf失败</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、打断点调试，发现在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getDocument</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取文件的时候就报错了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、怀疑是文件名有汉字，修改成英文，失败</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、怀疑路径有问题，比如跨域之类的，于是放到public里面，果然不再报错</t>
+    </r>
+  </si>
+  <si>
+    <t>跨域导致的</t>
+  </si>
+  <si>
+    <t>先放到public里面测试，后面再解决跨域</t>
   </si>
 </sst>
 </file>
@@ -2330,8 +2460,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2391,4 +2521,100 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="54" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="73.5" spans="2:5">
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/开发过程中问题记录.xlsx
+++ b/开发过程中问题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="vue" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="axios" sheetId="5" r:id="rId5"/>
     <sheet name="ztree" sheetId="6" r:id="rId6"/>
     <sheet name="pdf.js" sheetId="7" r:id="rId7"/>
+    <sheet name="css" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <r>
       <rPr>
@@ -956,6 +957,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>爆了另外的错</t>
     </r>
     <r>
@@ -990,6 +998,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -1070,6 +1085,30 @@
   </si>
   <si>
     <t>先放到public里面测试，后面再解决跨域</t>
+  </si>
+  <si>
+    <r>
+      <t>pdf</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只能翻页展示</t>
+    </r>
+  </si>
+  <si>
+    <t>想要滚动展示分页</t>
+  </si>
+  <si>
+    <t>每一页只能调用render渲染</t>
+  </si>
+  <si>
+    <t>scope里面的样式对document创建的标签不起作用</t>
   </si>
 </sst>
 </file>
@@ -2526,13 +2565,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
@@ -2613,6 +2652,94 @@
         <v>64</v>
       </c>
     </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="23.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
